--- a/results/mp/deberta/corona/confidence/168/stop-words-masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-masking-0.15/avg_0.004_scores.xlsx
@@ -97,12 +97,12 @@
     <t>positive</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
@@ -112,10 +112,10 @@
     <t>safety</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>share</t>
   </si>
   <si>
     <t>care</t>
@@ -1178,25 +1178,25 @@
         <v>27</v>
       </c>
       <c r="K18">
-        <v>0.6824034334763949</v>
+        <v>0.6777777777777778</v>
       </c>
       <c r="L18">
-        <v>159</v>
+        <v>61</v>
       </c>
       <c r="M18">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="N18">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O18">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P18" t="b">
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>74</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1204,25 +1204,25 @@
         <v>28</v>
       </c>
       <c r="K19">
-        <v>0.6777777777777778</v>
+        <v>0.6652719665271967</v>
       </c>
       <c r="L19">
-        <v>61</v>
+        <v>159</v>
       </c>
       <c r="M19">
-        <v>65</v>
+        <v>159</v>
       </c>
       <c r="N19">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>29</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1308,25 +1308,25 @@
         <v>32</v>
       </c>
       <c r="K23">
-        <v>0.599388379204893</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L23">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="M23">
-        <v>209</v>
+        <v>42</v>
       </c>
       <c r="N23">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O23">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>131</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1334,25 +1334,25 @@
         <v>33</v>
       </c>
       <c r="K24">
-        <v>0.5882352941176471</v>
+        <v>0.5764705882352941</v>
       </c>
       <c r="L24">
-        <v>40</v>
+        <v>196</v>
       </c>
       <c r="M24">
-        <v>42</v>
+        <v>196</v>
       </c>
       <c r="N24">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>28</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="10:17">
